--- a/Translation matrix of the ELSA webtool.xlsx
+++ b/Translation matrix of the ELSA webtool.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="tool_master" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">tool_master!$A$1:$E$71</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="352">
   <si>
     <t xml:space="preserve">var</t>
   </si>
@@ -451,6 +454,33 @@
     <t xml:space="preserve">Ничего не заблокировано</t>
   </si>
   <si>
+    <t xml:space="preserve">overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrégat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parámetros del modelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paramètres du modèle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметры модели</t>
+  </si>
+  <si>
     <t xml:space="preserve">passw</t>
   </si>
   <si>
@@ -464,21 +494,6 @@
   </si>
   <si>
     <t xml:space="preserve">Пароль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parámetros del modelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paramètres du modèle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Параметры модели</t>
   </si>
   <si>
     <t xml:space="preserve">policy</t>
@@ -1073,7 +1088,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1117,12 +1132,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1202,8 +1211,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1215,7 +1224,29 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8DEE9"/>
+          <bgColor rgb="FF3B4252"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1287,27 +1318,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1048576"/>
+  <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="39.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1379,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1527,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1529,7 +1564,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1566,7 +1601,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1638,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1640,7 +1675,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -1714,7 +1749,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
@@ -1751,7 +1786,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
@@ -2158,7 +2193,7 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>114</v>
       </c>
@@ -2380,7 +2415,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2393,9 +2428,7 @@
       <c r="D30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2419,19 +2452,19 @@
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2455,20 +2488,20 @@
       <c r="Y31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2492,20 +2525,20 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2530,19 +2563,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -2565,21 +2598,21 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2604,19 +2637,19 @@
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -2641,19 +2674,19 @@
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2676,21 +2709,21 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2713,21 +2746,21 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2751,20 +2784,20 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -2788,20 +2821,20 @@
       <c r="Y40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -2826,19 +2859,19 @@
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -2863,19 +2896,19 @@
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -2898,21 +2931,21 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -2935,21 +2968,21 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -2972,21 +3005,21 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3010,20 +3043,20 @@
       <c r="Y46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3048,19 +3081,19 @@
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3083,21 +3116,21 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3120,21 +3153,21 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3159,19 +3192,19 @@
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3194,21 +3227,21 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3231,21 +3264,21 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -3270,19 +3303,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -3305,21 +3338,21 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -3342,21 +3375,21 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -3379,21 +3412,21 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -3418,19 +3451,19 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -3455,19 +3488,19 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -3492,19 +3525,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -3528,20 +3561,20 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -3565,20 +3598,20 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -3603,19 +3636,19 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -3640,19 +3673,19 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -3676,20 +3709,20 @@
       <c r="Y64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -3713,20 +3746,20 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -3749,21 +3782,21 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>332</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3786,21 +3819,21 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3825,19 +3858,19 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3862,19 +3895,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3898,31 +3931,45 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
+      <c r="A71" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
@@ -29043,8 +29090,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="A2:E26 A28:E1001 A27:C27 E27">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <autoFilter ref="A1:E71"/>
+  <conditionalFormatting sqref="A2:E26 A27:C27 E27 A28:E1001">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29055,5 +29103,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>